--- a/Textbook Companion/Chapter43/Practice Files/Ptableexample.xlsx
+++ b/Textbook Companion/Chapter43/Practice Files/Ptableexample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\Chapter43pivottables\Companion Content\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter43\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="14880" windowHeight="7815" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st table" sheetId="4" r:id="rId1"/>
@@ -69,17 +69,21 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
     <definedName name="Slicer_Country">#N/A</definedName>
+    <definedName name="Slicer_Country1">#N/A</definedName>
     <definedName name="Slicer_Product">#N/A</definedName>
+    <definedName name="Slicer_Product1">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="13" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -90,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="37">
   <si>
     <t>Month</t>
   </si>
@@ -197,16 +201,20 @@
     <t>april chip 1 France revenue</t>
   </si>
   <si>
-    <t>Group1</t>
+    <t>Sum of Var2</t>
   </si>
   <si>
-    <t>Jan-March</t>
+    <t>Var Percentage of Budget2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
@@ -259,20 +267,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
     <dxf>
       <font>
         <b/>
@@ -289,19 +296,34 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00;[Red][$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -350,22 +372,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Product"/>
+            <xdr:cNvPr id="4" name="Product">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -389,7 +417,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4676775" y="1438274"/>
+              <a:off x="5448300" y="2181224"/>
               <a:ext cx="1638300" cy="1247775"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -422,22 +450,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Country"/>
+            <xdr:cNvPr id="5" name="Country">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -461,7 +495,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4686300" y="200024"/>
+              <a:off x="5457825" y="600074"/>
               <a:ext cx="1619250" cy="1247775"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -495,12 +529,173 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Product 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ADE2C8-23BC-4AF4-B049-0359E6543C1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13077825" y="4648200"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Country 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1A5DB6-BECA-450A-9EA1-13ED448B94DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13077825" y="2247900"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="IBM T42" refreshedDate="39099.5718837963" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="207">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="IBM T42" refreshedDate="39099.5718837963" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="207" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F208" sheet="data"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="11">
     <cacheField name="Month" numFmtId="0">
       <sharedItems count="12">
         <s v="January"/>
@@ -516,7 +711,6 @@
         <s v="November"/>
         <s v="December"/>
       </sharedItems>
-      <fieldGroup par="6"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
       <sharedItems count="3">
@@ -541,37 +735,11 @@
     <cacheField name="Var" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-5871" maxValue="7092"/>
     </cacheField>
-    <cacheField name="Month2" numFmtId="0" databaseField="0">
-      <fieldGroup base="0">
-        <discretePr count="12">
-          <x v="9"/>
-          <x v="9"/>
-          <x v="9"/>
-          <x v="0"/>
-          <x v="1"/>
-          <x v="2"/>
-          <x v="3"/>
-          <x v="4"/>
-          <x v="5"/>
-          <x v="6"/>
-          <x v="7"/>
-          <x v="8"/>
-        </discretePr>
-        <groupItems count="10">
-          <s v="April"/>
-          <s v="May"/>
-          <s v="June"/>
-          <s v="July"/>
-          <s v="August"/>
-          <s v="September"/>
-          <s v="October"/>
-          <s v="November"/>
-          <s v="December"/>
-          <s v="Group1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
     <cacheField name="Var percentage of Budget" numFmtId="0" formula="Var/Budget" databaseField="0"/>
+    <cacheField name="Budgeted Revenue" numFmtId="0" formula="Revenue-Budget" databaseField="0"/>
+    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
+    <cacheField name="V" numFmtId="0" formula="Var/Budget" databaseField="0"/>
+    <cacheField name="Field2" numFmtId="0" formula="Var/Budget" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -582,7 +750,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="207">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="207">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2243,9 +2411,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable8" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -2282,20 +2450,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -2366,13 +2524,153 @@
     <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:F76" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Sum of Var" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Var percentage of Budget" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:F66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -2409,29 +2707,18 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="4">
-    <field x="6"/>
+  <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="71">
+  <rowItems count="61">
     <i>
       <x/>
     </i>
@@ -2441,205 +2728,175 @@
     <i r="2">
       <x/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="3">
+    <i r="2">
       <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
     <i r="2">
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="2"/>
     </i>
-    <i r="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
       <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i r="2">
       <x/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i r="2">
       <x v="1"/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
     <i r="2">
       <x v="2"/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
       <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i r="2">
       <x/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
     <i r="2">
       <x v="1"/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
     <i r="2">
       <x v="2"/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
     </i>
     <i r="2">
       <x/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
     <i r="2">
       <x v="1"/>
     </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
     <i r="2">
       <x v="2"/>
     </i>
-    <i r="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
-    <i r="3">
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="3">
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="2"/>
     </i>
     <i t="grand">
@@ -2671,22 +2928,27 @@
     <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Sum of Var percentage of Budget" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Var percentage of Budget" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0">
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA2305C5-8E46-4794-943E-E435DC209407}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I5:N19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -2722,9 +2984,102 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item n="Jan-March" x="9"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Sum of Var" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Var Percentage of Budget2" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2734,14 +3089,41 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -2771,6 +3153,12 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -2804,18 +3192,23 @@
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -2852,20 +3245,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -2940,18 +3323,23 @@
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -2988,20 +3376,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3076,18 +3454,23 @@
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -3124,20 +3507,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3212,18 +3585,23 @@
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="15">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -3260,20 +3638,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3348,18 +3716,23 @@
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -3396,20 +3769,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3460,18 +3823,23 @@
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40295AAE-CBE6-4BC9-A365-876581EB9A72}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A26:F40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -3489,7 +3857,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -3497,31 +3865,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="2"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3571,7 +3929,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -3584,30 +3942,30 @@
     <i i="3">
       <x v="3"/>
     </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Var" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  <dataFields count="5">
+    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Var" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Var2" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -3644,21 +4002,11 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -3707,7 +4055,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -3719,35 +4067,147 @@
     </i>
     <i i="3">
       <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
     </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Sum of Var" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
+  <dataFields count="4">
+    <dataField name="Sum of Var" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Budget" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sum of Revenue2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Sum of Var percentage of Budget" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
+  <formats count="11">
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="10">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Product" sourceName="Product">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Product">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable9"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
@@ -3762,16 +4222,51 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Country" sourceName="Country">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Country" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Country">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable9"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product1" xr10:uid="{8D57D1CE-F8BB-4F11-9811-068F0E3639DE}" sourceName="Product">
+  <pivotTables>
+    <pivotTable tabId="1" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Country1" xr10:uid="{D259BCB0-A1E2-4769-AA02-CBEB900EC11C}" sourceName="Country">
+  <pivotTables>
+    <pivotTable tabId="1" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
       </items>
     </tabular>
   </data>
@@ -3779,9 +4274,16 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Product" cache="Slicer_Product" caption="Product" rowHeight="241300"/>
-  <slicer name="Country" cache="Slicer_Country" caption="Country" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Product" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Product" caption="Product" rowHeight="241300"/>
+  <slicer name="Country" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Country" caption="Country" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Product 1" xr10:uid="{9F4D42A4-7DA3-461B-BC85-4F261A8FE7F6}" cache="Slicer_Product1" caption="Product" rowHeight="241300"/>
+  <slicer name="Country 1" xr10:uid="{CAC2DC8F-C1B0-4170-9538-157CA166AA36}" cache="Slicer_Country1" caption="Country" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -3861,6 +4363,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3896,6 +4415,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4071,7 +4607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4080,7 +4616,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
@@ -4088,7 +4624,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -4096,7 +4632,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -4105,14 +4641,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -4126,184 +4662,184 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>-4297</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>8.5292678981718398E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>91831</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2843</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>8.8062883546173643E-2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>87534</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>-1389</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>8.6709449096638538E-2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>90377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>-2774</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>8.2806023319217603E-2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>87756</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>-423</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>8.2393854296788985E-2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>84982</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>-548</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>8.1859885917850719E-2</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>84559</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>2366</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>8.4165304137865174E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>84011</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>-2843</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>8.1395099573409929E-2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>86377</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>1389</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>8.2748534022945047E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>83534</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>-4318</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>7.8541097051676056E-2</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>84923</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>3406</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>8.1859885917850719E-2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>80605</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>2366</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>8.4165304137865174E-2</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>84011</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>-4222</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>1030500</v>
       </c>
     </row>
@@ -4373,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView topLeftCell="I8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4382,12 +4918,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4440,17 +4976,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-4297</v>
+      </c>
+      <c r="C6" s="4">
+        <v>91831</v>
+      </c>
+      <c r="D6" s="4">
+        <v>87534</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.5292678981718398E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-4.6792477485816338E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>-4297</v>
@@ -4470,42 +5016,42 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>-4297</v>
+        <v>2929</v>
       </c>
       <c r="C8" s="4">
-        <v>91831</v>
+        <v>29330</v>
       </c>
       <c r="D8" s="4">
-        <v>87534</v>
+        <v>32259</v>
       </c>
       <c r="E8" s="5">
-        <v>8.5292678981718398E-2</v>
+        <v>3.1433003533155736E-2</v>
       </c>
       <c r="F8" s="4">
-        <v>-4.6792477485816338E-2</v>
+        <v>9.9863620866007502E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
+      <c r="A9" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>2929</v>
+        <v>-5772</v>
       </c>
       <c r="C9" s="4">
-        <v>29330</v>
+        <v>33171</v>
       </c>
       <c r="D9" s="4">
-        <v>32259</v>
+        <v>27399</v>
       </c>
       <c r="E9" s="5">
-        <v>3.1433003533155736E-2</v>
+        <v>2.6697444552060943E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>9.9863620866007502E-2</v>
+        <v>-0.17400741611648729</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -4515,48 +5061,48 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
+      <c r="A10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>-5772</v>
+        <v>-1454</v>
       </c>
       <c r="C10" s="4">
-        <v>33171</v>
+        <v>29330</v>
       </c>
       <c r="D10" s="4">
-        <v>27399</v>
+        <v>27876</v>
       </c>
       <c r="E10" s="5">
-        <v>2.6697444552060943E-2</v>
+        <v>2.7162230896501726E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>-0.17400741611648729</v>
+        <v>-4.9573815206273443E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>-1454</v>
+        <v>2843</v>
       </c>
       <c r="C11" s="4">
-        <v>29330</v>
+        <v>87534</v>
       </c>
       <c r="D11" s="4">
-        <v>27876</v>
+        <v>90377</v>
       </c>
       <c r="E11" s="5">
-        <v>2.7162230896501726E-2</v>
+        <v>8.8062883546173643E-2</v>
       </c>
       <c r="F11" s="4">
-        <v>-4.9573815206273443E-2</v>
+        <v>3.2478808234514586E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>2843</v>
@@ -4585,22 +5131,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>2843</v>
+        <v>3318</v>
       </c>
       <c r="C13" s="4">
-        <v>87534</v>
+        <v>32045</v>
       </c>
       <c r="D13" s="4">
-        <v>90377</v>
+        <v>35363</v>
       </c>
       <c r="E13" s="5">
-        <v>8.8062883546173643E-2</v>
+        <v>3.4457525154003105E-2</v>
       </c>
       <c r="F13" s="4">
-        <v>3.2478808234514586E-2</v>
+        <v>0.1035418942112654</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>9</v>
@@ -4619,23 +5165,23 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
+      <c r="A14" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>3318</v>
+        <v>-3846</v>
       </c>
       <c r="C14" s="4">
-        <v>32045</v>
+        <v>32954</v>
       </c>
       <c r="D14" s="4">
-        <v>35363</v>
+        <v>29108</v>
       </c>
       <c r="E14" s="5">
-        <v>3.4457525154003105E-2</v>
+        <v>2.8362685354260737E-2</v>
       </c>
       <c r="F14" s="4">
-        <v>0.1035418942112654</v>
+        <v>-0.11670813861746678</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -4654,23 +5200,23 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
+      <c r="A15" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>-3846</v>
+        <v>3371</v>
       </c>
       <c r="C15" s="4">
-        <v>32954</v>
+        <v>22535</v>
       </c>
       <c r="D15" s="4">
-        <v>29108</v>
+        <v>25906</v>
       </c>
       <c r="E15" s="5">
-        <v>2.8362685354260737E-2</v>
+        <v>2.5242673037909807E-2</v>
       </c>
       <c r="F15" s="4">
-        <v>-0.11670813861746678</v>
+        <v>0.14958952740181938</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>8</v>
@@ -4689,28 +5235,28 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>8</v>
+      <c r="A16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>3371</v>
+        <v>-1389</v>
       </c>
       <c r="C16" s="4">
-        <v>22535</v>
+        <v>90377</v>
       </c>
       <c r="D16" s="4">
-        <v>25906</v>
+        <v>88988</v>
       </c>
       <c r="E16" s="5">
-        <v>2.5242673037909807E-2</v>
+        <v>8.6709449096638538E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>0.14958952740181938</v>
+        <v>-1.5368954490633678E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4">
         <v>-1389</v>
@@ -4730,127 +5276,137 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>-1389</v>
+        <v>-10733</v>
       </c>
       <c r="C18" s="4">
-        <v>90377</v>
+        <v>35363</v>
       </c>
       <c r="D18" s="4">
-        <v>88988</v>
+        <v>24630</v>
       </c>
       <c r="E18" s="5">
-        <v>8.6709449096638538E-2</v>
+        <v>2.3999345206659403E-2</v>
       </c>
       <c r="F18" s="4">
-        <v>-1.5368954490633678E-2</v>
+        <v>-0.30350931764838956</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>9</v>
+      <c r="A19" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="4">
-        <v>-10733</v>
+        <v>11529</v>
       </c>
       <c r="C19" s="4">
-        <v>35363</v>
+        <v>20784</v>
       </c>
       <c r="D19" s="4">
-        <v>24630</v>
+        <v>32313</v>
       </c>
       <c r="E19" s="5">
-        <v>2.3999345206659403E-2</v>
+        <v>3.1485620855167901E-2</v>
       </c>
       <c r="F19" s="4">
-        <v>-0.30350931764838956</v>
+        <v>0.55470554272517325</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
+      <c r="A20" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="4">
-        <v>11529</v>
+        <v>-2185</v>
       </c>
       <c r="C20" s="4">
-        <v>20784</v>
+        <v>34230</v>
       </c>
       <c r="D20" s="4">
-        <v>32313</v>
+        <v>32045</v>
       </c>
       <c r="E20" s="5">
-        <v>3.1485620855167901E-2</v>
+        <v>3.1224483034811231E-2</v>
       </c>
       <c r="F20" s="4">
-        <v>0.55470554272517325</v>
+        <v>-6.3832895121238686E-2</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
+      <c r="A21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B21" s="4">
-        <v>-2185</v>
+        <v>-2774</v>
       </c>
       <c r="C21" s="4">
-        <v>34230</v>
+        <v>87756</v>
       </c>
       <c r="D21" s="4">
-        <v>32045</v>
+        <v>84982</v>
       </c>
       <c r="E21" s="5">
-        <v>3.1224483034811231E-2</v>
+        <v>8.2806023319217603E-2</v>
       </c>
       <c r="F21" s="4">
-        <v>-6.3832895121238686E-2</v>
+        <v>-3.1610374219426592E-2</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-2774</v>
+      </c>
+      <c r="C22" s="4">
+        <v>87756</v>
+      </c>
+      <c r="D22" s="4">
+        <v>84982</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.2806023319217603E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-3.1610374219426592E-2</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
+      <c r="A23" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>-2774</v>
+        <v>1054</v>
       </c>
       <c r="C23" s="4">
-        <v>87756</v>
+        <v>19289</v>
       </c>
       <c r="D23" s="4">
-        <v>84982</v>
+        <v>20343</v>
       </c>
       <c r="E23" s="5">
-        <v>8.2806023319217603E-2</v>
+        <v>1.98221144758048E-2</v>
       </c>
       <c r="F23" s="4">
-        <v>-3.1610374219426592E-2</v>
+        <v>5.464254238166831E-2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>17</v>
@@ -4858,127 +5414,137 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4">
-        <v>-2774</v>
+        <v>-54</v>
       </c>
       <c r="C24" s="4">
-        <v>87756</v>
+        <v>37654</v>
       </c>
       <c r="D24" s="4">
-        <v>84982</v>
+        <v>37600</v>
       </c>
       <c r="E24" s="5">
-        <v>8.2806023319217603E-2</v>
+        <v>3.6637246438099617E-2</v>
       </c>
       <c r="F24" s="4">
-        <v>-3.1610374219426592E-2</v>
+        <v>-1.4341105858607318E-3</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>9</v>
+      <c r="A25" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B25" s="4">
-        <v>1054</v>
+        <v>-3774</v>
       </c>
       <c r="C25" s="4">
-        <v>19289</v>
+        <v>30813</v>
       </c>
       <c r="D25" s="4">
-        <v>20343</v>
+        <v>27039</v>
       </c>
       <c r="E25" s="5">
-        <v>1.98221144758048E-2</v>
+        <v>2.6346662405313179E-2</v>
       </c>
       <c r="F25" s="4">
-        <v>5.464254238166831E-2</v>
+        <v>-0.12248077110310583</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>10</v>
+      <c r="A26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B26" s="4">
-        <v>-54</v>
+        <v>-423</v>
       </c>
       <c r="C26" s="4">
-        <v>37654</v>
+        <v>84982</v>
       </c>
       <c r="D26" s="4">
-        <v>37600</v>
+        <v>84559</v>
       </c>
       <c r="E26" s="5">
-        <v>3.6637246438099617E-2</v>
+        <v>8.2393854296788985E-2</v>
       </c>
       <c r="F26" s="4">
-        <v>-1.4341105858607318E-3</v>
+        <v>-4.9775246522793066E-3</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>8</v>
+      <c r="A27" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="4">
-        <v>-3774</v>
+        <v>-423</v>
       </c>
       <c r="C27" s="4">
-        <v>30813</v>
+        <v>84982</v>
       </c>
       <c r="D27" s="4">
-        <v>27039</v>
+        <v>84559</v>
       </c>
       <c r="E27" s="5">
-        <v>2.6346662405313179E-2</v>
+        <v>8.2393854296788985E-2</v>
       </c>
       <c r="F27" s="4">
-        <v>-0.12248077110310583</v>
+        <v>-4.9775246522793066E-3</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8332</v>
+      </c>
+      <c r="C28" s="4">
+        <v>20343</v>
+      </c>
+      <c r="D28" s="4">
+        <v>28675</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.7940772383311344E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.40957577545101509</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>16</v>
+      <c r="A29" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B29" s="4">
-        <v>-423</v>
+        <v>3318</v>
       </c>
       <c r="C29" s="4">
-        <v>84982</v>
+        <v>32045</v>
       </c>
       <c r="D29" s="4">
-        <v>84559</v>
+        <v>35363</v>
       </c>
       <c r="E29" s="5">
-        <v>8.2393854296788985E-2</v>
+        <v>3.4457525154003105E-2</v>
       </c>
       <c r="F29" s="4">
-        <v>-4.9775246522793066E-3</v>
+        <v>0.1035418942112654</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>23</v>
@@ -4986,877 +5552,827 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-12073</v>
+      </c>
+      <c r="C30" s="4">
+        <v>32594</v>
+      </c>
+      <c r="D30" s="4">
+        <v>20521</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.999555675947453E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-0.37040559612198565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-548</v>
+      </c>
+      <c r="C31" s="4">
+        <v>84559</v>
+      </c>
+      <c r="D31" s="4">
+        <v>84011</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-6.4806821272720824E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-548</v>
+      </c>
+      <c r="C32" s="4">
+        <v>84559</v>
+      </c>
+      <c r="D32" s="4">
+        <v>84011</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-6.4806821272720824E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-2823</v>
+      </c>
+      <c r="C33" s="4">
+        <v>30867</v>
+      </c>
+      <c r="D33" s="4">
+        <v>28044</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.7325929231650684E-2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-9.1456895713869182E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-3740</v>
+      </c>
+      <c r="C34" s="4">
+        <v>36595</v>
+      </c>
+      <c r="D34" s="4">
+        <v>32855</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3.2013742864993693E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-0.10219975406476295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6015</v>
+      </c>
+      <c r="C35" s="4">
+        <v>17097</v>
+      </c>
+      <c r="D35" s="4">
+        <v>23112</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.252021382120634E-2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.35181610808913844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2366</v>
+      </c>
+      <c r="C36" s="4">
+        <v>84011</v>
+      </c>
+      <c r="D36" s="4">
+        <v>86377</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.8162978657556747E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2366</v>
+      </c>
+      <c r="C37" s="4">
+        <v>84011</v>
+      </c>
+      <c r="D37" s="4">
+        <v>86377</v>
+      </c>
+      <c r="E37" s="5">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.8162978657556747E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-5114</v>
+      </c>
+      <c r="C38" s="4">
+        <v>28044</v>
+      </c>
+      <c r="D38" s="4">
+        <v>22930</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2.2342873958128305E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>-0.182356297247183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-275</v>
+      </c>
+      <c r="C39" s="4">
+        <v>27514</v>
+      </c>
+      <c r="D39" s="4">
+        <v>27239</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.6541541375728603E-2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>-9.9949116813258711E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7755</v>
+      </c>
+      <c r="C40" s="4">
+        <v>28453</v>
+      </c>
+      <c r="D40" s="4">
+        <v>36208</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3.5280888804008273E-2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.27255473939479141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-2843</v>
+      </c>
+      <c r="C41" s="4">
+        <v>86377</v>
+      </c>
+      <c r="D41" s="4">
+        <v>83534</v>
+      </c>
+      <c r="E41" s="5">
+        <v>8.1395099573409929E-2</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-3.2913854382532387E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4">
-        <v>-423</v>
-      </c>
-      <c r="C30" s="4">
-        <v>84982</v>
-      </c>
-      <c r="D30" s="4">
-        <v>84559</v>
-      </c>
-      <c r="E30" s="5">
-        <v>8.2393854296788985E-2</v>
-      </c>
-      <c r="F30" s="4">
-        <v>-4.9775246522793066E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B42" s="4">
+        <v>-2843</v>
+      </c>
+      <c r="C42" s="4">
+        <v>86377</v>
+      </c>
+      <c r="D42" s="4">
+        <v>83534</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8.1395099573409929E-2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-3.2913854382532387E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>8332</v>
-      </c>
-      <c r="C31" s="4">
-        <v>20343</v>
-      </c>
-      <c r="D31" s="4">
-        <v>28675</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2.7940772383311344E-2</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.40957577545101509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B43" s="4">
+        <v>-3855</v>
+      </c>
+      <c r="C43" s="4">
+        <v>27830</v>
+      </c>
+      <c r="D43" s="4">
+        <v>23975</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2.3361116578548891E-2</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-0.13851958318361479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="4">
-        <v>3318</v>
-      </c>
-      <c r="C32" s="4">
-        <v>32045</v>
-      </c>
-      <c r="D32" s="4">
-        <v>35363</v>
-      </c>
-      <c r="E32" s="5">
-        <v>3.4457525154003105E-2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.1035418942112654</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="B44" s="4">
+        <v>2769</v>
+      </c>
+      <c r="C44" s="4">
+        <v>30663</v>
+      </c>
+      <c r="D44" s="4">
+        <v>33432</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3.2575968694642195E-2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>9.0304275511202431E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="4">
-        <v>-12073</v>
-      </c>
-      <c r="C33" s="4">
-        <v>32594</v>
-      </c>
-      <c r="D33" s="4">
-        <v>20521</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1.999555675947453E-2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>-0.37040559612198565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="4">
-        <v>-548</v>
-      </c>
-      <c r="C35" s="4">
-        <v>84559</v>
-      </c>
-      <c r="D35" s="4">
-        <v>84011</v>
-      </c>
-      <c r="E35" s="5">
-        <v>8.1859885917850719E-2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>-6.4806821272720824E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-548</v>
-      </c>
-      <c r="C36" s="4">
-        <v>84559</v>
-      </c>
-      <c r="D36" s="4">
-        <v>84011</v>
-      </c>
-      <c r="E36" s="5">
-        <v>8.1859885917850719E-2</v>
-      </c>
-      <c r="F36" s="4">
-        <v>-6.4806821272720824E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="4">
-        <v>-2823</v>
-      </c>
-      <c r="C37" s="4">
-        <v>30867</v>
-      </c>
-      <c r="D37" s="4">
-        <v>28044</v>
-      </c>
-      <c r="E37" s="5">
-        <v>2.7325929231650684E-2</v>
-      </c>
-      <c r="F37" s="4">
-        <v>-9.1456895713869182E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4">
-        <v>-3740</v>
-      </c>
-      <c r="C38" s="4">
-        <v>36595</v>
-      </c>
-      <c r="D38" s="4">
-        <v>32855</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3.2013742864993693E-2</v>
-      </c>
-      <c r="F38" s="4">
-        <v>-0.10219975406476295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="4">
-        <v>6015</v>
-      </c>
-      <c r="C39" s="4">
-        <v>17097</v>
-      </c>
-      <c r="D39" s="4">
-        <v>23112</v>
-      </c>
-      <c r="E39" s="5">
-        <v>2.252021382120634E-2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.35181610808913844</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="4">
-        <v>2366</v>
-      </c>
-      <c r="C41" s="4">
-        <v>84011</v>
-      </c>
-      <c r="D41" s="4">
-        <v>86377</v>
-      </c>
-      <c r="E41" s="5">
-        <v>8.4165304137865174E-2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>2.8162978657556747E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="4">
-        <v>2366</v>
-      </c>
-      <c r="C42" s="4">
-        <v>84011</v>
-      </c>
-      <c r="D42" s="4">
-        <v>86377</v>
-      </c>
-      <c r="E42" s="5">
-        <v>8.4165304137865174E-2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2.8162978657556747E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="4">
-        <v>-5114</v>
-      </c>
-      <c r="C43" s="4">
-        <v>28044</v>
-      </c>
-      <c r="D43" s="4">
-        <v>22930</v>
-      </c>
-      <c r="E43" s="5">
-        <v>2.2342873958128305E-2</v>
-      </c>
-      <c r="F43" s="4">
-        <v>-0.182356297247183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="4">
-        <v>-275</v>
-      </c>
-      <c r="C44" s="4">
-        <v>27514</v>
-      </c>
-      <c r="D44" s="4">
-        <v>27239</v>
-      </c>
-      <c r="E44" s="5">
-        <v>2.6541541375728603E-2</v>
-      </c>
-      <c r="F44" s="4">
-        <v>-9.9949116813258711E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="B45" s="4">
-        <v>7755</v>
+        <v>-1757</v>
       </c>
       <c r="C45" s="4">
-        <v>28453</v>
+        <v>27884</v>
       </c>
       <c r="D45" s="4">
-        <v>36208</v>
+        <v>26127</v>
       </c>
       <c r="E45" s="5">
-        <v>3.5280888804008273E-2</v>
+        <v>2.5458014300218851E-2</v>
       </c>
       <c r="F45" s="4">
-        <v>0.27255473939479141</v>
+        <v>-6.3011045761009896E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1389</v>
+      </c>
+      <c r="C46" s="4">
+        <v>83534</v>
+      </c>
+      <c r="D46" s="4">
+        <v>84923</v>
+      </c>
+      <c r="E46" s="5">
+        <v>8.2748534022945047E-2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1.6627959872626715E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B47" s="4">
-        <v>-2843</v>
+        <v>1389</v>
       </c>
       <c r="C47" s="4">
-        <v>86377</v>
+        <v>83534</v>
       </c>
       <c r="D47" s="4">
-        <v>83534</v>
+        <v>84923</v>
       </c>
       <c r="E47" s="5">
-        <v>8.1395099573409929E-2</v>
+        <v>8.2748534022945047E-2</v>
       </c>
       <c r="F47" s="4">
-        <v>-3.2913854382532387E-2</v>
+        <v>1.6627959872626715E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" s="4">
-        <v>-2843</v>
+        <v>-1654</v>
       </c>
       <c r="C48" s="4">
-        <v>86377</v>
+        <v>23975</v>
       </c>
       <c r="D48" s="4">
-        <v>83534</v>
+        <v>22321</v>
       </c>
       <c r="E48" s="5">
-        <v>8.1395099573409929E-2</v>
+        <v>2.174946749321334E-2</v>
       </c>
       <c r="F48" s="4">
-        <v>-3.2913854382532387E-2</v>
+        <v>-6.8988529718456731E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-2983</v>
+      </c>
+      <c r="C49" s="4">
+        <v>32200</v>
+      </c>
+      <c r="D49" s="4">
+        <v>29217</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2.8468894393137142E-2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-9.2639751552795024E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6026</v>
+      </c>
+      <c r="C50" s="4">
+        <v>27359</v>
+      </c>
+      <c r="D50" s="4">
+        <v>33385</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3.2530172136594565E-2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.22025658832559669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4">
+        <v>-4318</v>
+      </c>
+      <c r="C51" s="4">
+        <v>84923</v>
+      </c>
+      <c r="D51" s="4">
+        <v>80605</v>
+      </c>
+      <c r="E51" s="5">
+        <v>7.8541097051676056E-2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-5.084606054896789E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-4318</v>
+      </c>
+      <c r="C52" s="4">
+        <v>84923</v>
+      </c>
+      <c r="D52" s="4">
+        <v>80605</v>
+      </c>
+      <c r="E52" s="5">
+        <v>7.8541097051676056E-2</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-5.084606054896789E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="4">
-        <v>-3855</v>
-      </c>
-      <c r="C49" s="4">
-        <v>27830</v>
-      </c>
-      <c r="D49" s="4">
-        <v>23975</v>
-      </c>
-      <c r="E49" s="5">
-        <v>2.3361116578548891E-2</v>
-      </c>
-      <c r="F49" s="4">
-        <v>-0.13851958318361479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="4">
-        <v>2769</v>
-      </c>
-      <c r="C50" s="4">
-        <v>30663</v>
-      </c>
-      <c r="D50" s="4">
-        <v>33432</v>
-      </c>
-      <c r="E50" s="5">
-        <v>3.2575968694642195E-2</v>
-      </c>
-      <c r="F50" s="4">
-        <v>9.0304275511202431E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="4">
-        <v>-1757</v>
-      </c>
-      <c r="C51" s="4">
-        <v>27884</v>
-      </c>
-      <c r="D51" s="4">
-        <v>26127</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2.5458014300218851E-2</v>
-      </c>
-      <c r="F51" s="4">
-        <v>-6.3011045761009896E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="B53" s="4">
-        <v>1389</v>
+        <v>1454</v>
       </c>
       <c r="C53" s="4">
-        <v>83534</v>
+        <v>27876</v>
       </c>
       <c r="D53" s="4">
-        <v>84923</v>
+        <v>29330</v>
       </c>
       <c r="E53" s="5">
-        <v>8.2748534022945047E-2</v>
+        <v>2.8579001011421856E-2</v>
       </c>
       <c r="F53" s="4">
-        <v>1.6627959872626715E-2</v>
+        <v>5.2159563782465203E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" s="4">
-        <v>1389</v>
+        <v>-1917</v>
       </c>
       <c r="C54" s="4">
-        <v>83534</v>
+        <v>29217</v>
       </c>
       <c r="D54" s="4">
-        <v>84923</v>
+        <v>27300</v>
       </c>
       <c r="E54" s="5">
-        <v>8.2748534022945047E-2</v>
+        <v>2.6600979461705306E-2</v>
       </c>
       <c r="F54" s="4">
-        <v>1.6627959872626715E-2</v>
+        <v>-6.5612485881507338E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-3855</v>
+      </c>
+      <c r="C55" s="4">
+        <v>27830</v>
+      </c>
+      <c r="D55" s="4">
+        <v>23975</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.3361116578548891E-2</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-0.13851958318361479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="4">
+        <v>3406</v>
+      </c>
+      <c r="C56" s="4">
+        <v>80605</v>
+      </c>
+      <c r="D56" s="4">
+        <v>84011</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4.2255443210718939E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4">
+        <v>3406</v>
+      </c>
+      <c r="C57" s="4">
+        <v>80605</v>
+      </c>
+      <c r="D57" s="4">
+        <v>84011</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.2255443210718939E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="4">
-        <v>-1654</v>
-      </c>
-      <c r="C55" s="4">
-        <v>23975</v>
-      </c>
-      <c r="D55" s="4">
-        <v>22321</v>
-      </c>
-      <c r="E55" s="5">
-        <v>2.174946749321334E-2</v>
-      </c>
-      <c r="F55" s="4">
-        <v>-6.8988529718456731E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="B58" s="4">
+        <v>2929</v>
+      </c>
+      <c r="C58" s="4">
+        <v>29330</v>
+      </c>
+      <c r="D58" s="4">
+        <v>32259</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3.1433003533155736E-2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>9.9863620866007502E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="4">
-        <v>-2983</v>
-      </c>
-      <c r="C56" s="4">
-        <v>32200</v>
-      </c>
-      <c r="D56" s="4">
-        <v>29217</v>
-      </c>
-      <c r="E56" s="5">
-        <v>2.8468894393137142E-2</v>
-      </c>
-      <c r="F56" s="4">
-        <v>-9.2639751552795024E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="4">
-        <v>6026</v>
-      </c>
-      <c r="C57" s="4">
-        <v>27359</v>
-      </c>
-      <c r="D57" s="4">
-        <v>33385</v>
-      </c>
-      <c r="E57" s="5">
-        <v>3.2530172136594565E-2</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.22025658832559669</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="B59" s="4">
-        <v>-4318</v>
+        <v>0</v>
       </c>
       <c r="C59" s="4">
-        <v>84923</v>
+        <v>23876</v>
       </c>
       <c r="D59" s="4">
-        <v>80605</v>
+        <v>23876</v>
       </c>
       <c r="E59" s="5">
-        <v>7.8541097051676056E-2</v>
+        <v>2.3264651488193257E-2</v>
       </c>
       <c r="F59" s="4">
-        <v>-5.084606054896789E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="4">
-        <v>-4318</v>
+        <v>477</v>
       </c>
       <c r="C60" s="4">
-        <v>84923</v>
+        <v>27399</v>
       </c>
       <c r="D60" s="4">
-        <v>80605</v>
+        <v>27876</v>
       </c>
       <c r="E60" s="5">
-        <v>7.8541097051676056E-2</v>
+        <v>2.7162230896501726E-2</v>
       </c>
       <c r="F60" s="4">
-        <v>-5.084606054896789E-2</v>
+        <v>1.7409394503449031E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2366</v>
+      </c>
+      <c r="C61" s="4">
+        <v>84011</v>
+      </c>
+      <c r="D61" s="4">
+        <v>86377</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.8162978657556747E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2366</v>
+      </c>
+      <c r="C62" s="4">
+        <v>84011</v>
+      </c>
+      <c r="D62" s="4">
+        <v>86377</v>
+      </c>
+      <c r="E62" s="5">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2.8162978657556747E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B63" s="4">
         <v>1454</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C63" s="4">
         <v>27876</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D63" s="4">
         <v>29330</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E63" s="5">
         <v>2.8579001011421856E-2</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F63" s="4">
         <v>5.2159563782465203E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="4">
-        <v>-1917</v>
-      </c>
-      <c r="C62" s="4">
-        <v>29217</v>
-      </c>
-      <c r="D62" s="4">
-        <v>27300</v>
-      </c>
-      <c r="E62" s="5">
-        <v>2.6600979461705306E-2</v>
-      </c>
-      <c r="F62" s="4">
-        <v>-6.5612485881507338E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="B64" s="4">
+        <v>912</v>
+      </c>
+      <c r="C64" s="4">
+        <v>32259</v>
+      </c>
+      <c r="D64" s="4">
+        <v>33171</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3.2321651638250064E-2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.8271180135776064E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="4">
-        <v>-3855</v>
-      </c>
-      <c r="C63" s="4">
-        <v>27830</v>
-      </c>
-      <c r="D63" s="4">
-        <v>23975</v>
-      </c>
-      <c r="E63" s="5">
-        <v>2.3361116578548891E-2</v>
-      </c>
-      <c r="F63" s="4">
-        <v>-0.13851958318361479</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="B65" s="4">
-        <v>3406</v>
+        <v>0</v>
       </c>
       <c r="C65" s="4">
-        <v>80605</v>
+        <v>23876</v>
       </c>
       <c r="D65" s="4">
-        <v>84011</v>
+        <v>23876</v>
       </c>
       <c r="E65" s="5">
-        <v>8.1859885917850719E-2</v>
+        <v>2.3264651488193257E-2</v>
       </c>
       <c r="F65" s="4">
-        <v>4.2255443210718939E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>12</v>
+      <c r="A66" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B66" s="4">
-        <v>3406</v>
+        <v>-4222</v>
       </c>
       <c r="C66" s="4">
-        <v>80605</v>
+        <v>1030500</v>
       </c>
       <c r="D66" s="4">
-        <v>84011</v>
+        <v>1026278</v>
       </c>
       <c r="E66" s="5">
-        <v>8.1859885917850719E-2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>4.2255443210718939E-2</v>
+        <v>-4.0970402717127605E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="4">
-        <v>2929</v>
-      </c>
-      <c r="C67" s="4">
-        <v>29330</v>
-      </c>
-      <c r="D67" s="4">
-        <v>32259</v>
-      </c>
-      <c r="E67" s="5">
-        <v>3.1433003533155736E-2</v>
-      </c>
-      <c r="F67" s="4">
-        <v>9.9863620866007502E-2</v>
-      </c>
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4">
-        <v>23876</v>
-      </c>
-      <c r="D68" s="4">
-        <v>23876</v>
-      </c>
-      <c r="E68" s="5">
-        <v>2.3264651488193257E-2</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="4">
-        <v>477</v>
-      </c>
-      <c r="C69" s="4">
-        <v>27399</v>
-      </c>
-      <c r="D69" s="4">
-        <v>27876</v>
-      </c>
-      <c r="E69" s="5">
-        <v>2.7162230896501726E-2</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.7409394503449031E-2</v>
-      </c>
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="4"/>
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="4">
-        <v>2366</v>
-      </c>
-      <c r="C71" s="4">
-        <v>84011</v>
-      </c>
-      <c r="D71" s="4">
-        <v>86377</v>
-      </c>
-      <c r="E71" s="5">
-        <v>8.4165304137865174E-2</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2.8162978657556747E-2</v>
-      </c>
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="4">
-        <v>2366</v>
-      </c>
-      <c r="C72" s="4">
-        <v>84011</v>
-      </c>
-      <c r="D72" s="4">
-        <v>86377</v>
-      </c>
-      <c r="E72" s="5">
-        <v>8.4165304137865174E-2</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2.8162978657556747E-2</v>
-      </c>
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1454</v>
-      </c>
-      <c r="C73" s="4">
-        <v>27876</v>
-      </c>
-      <c r="D73" s="4">
-        <v>29330</v>
-      </c>
-      <c r="E73" s="5">
-        <v>2.8579001011421856E-2</v>
-      </c>
-      <c r="F73" s="4">
-        <v>5.2159563782465203E-2</v>
-      </c>
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="4">
-        <v>912</v>
-      </c>
-      <c r="C74" s="4">
-        <v>32259</v>
-      </c>
-      <c r="D74" s="4">
-        <v>33171</v>
-      </c>
-      <c r="E74" s="5">
-        <v>3.2321651638250064E-2</v>
-      </c>
-      <c r="F74" s="4">
-        <v>2.8271180135776064E-2</v>
-      </c>
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0</v>
-      </c>
-      <c r="C75" s="4">
-        <v>23876</v>
-      </c>
-      <c r="D75" s="4">
-        <v>23876</v>
-      </c>
-      <c r="E75" s="5">
-        <v>2.3264651488193257E-2</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="4">
-        <v>-4222</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1030500</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1026278</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4">
-        <v>-4.0970402717127605E-3</v>
-      </c>
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>$H$18:$H$29</formula1>
     </dataValidation>
   </dataValidations>
@@ -5865,19 +6381,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5917,8 +6441,14 @@
         <f>D2-E2</f>
         <v>-1454</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5938,8 +6468,14 @@
         <f t="shared" ref="F3:F66" si="0">D3-E3</f>
         <v>-1917</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5960,7 +6496,7 @@
         <v>7092</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5980,8 +6516,17 @@
         <f t="shared" si="0"/>
         <v>2131</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5"/>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6001,8 +6546,27 @@
         <f t="shared" si="0"/>
         <v>-2983</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6022,8 +6586,27 @@
         <f t="shared" si="0"/>
         <v>-4323</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10">
+        <v>-4297</v>
+      </c>
+      <c r="K7" s="10">
+        <v>87534</v>
+      </c>
+      <c r="L7" s="10">
+        <v>91831</v>
+      </c>
+      <c r="M7" s="11">
+        <v>8.5292678981718398E-2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>-4.6792477485816338E-2</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6043,8 +6626,27 @@
         <f t="shared" si="0"/>
         <v>-1917</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2843</v>
+      </c>
+      <c r="K8" s="10">
+        <v>90377</v>
+      </c>
+      <c r="L8" s="10">
+        <v>87534</v>
+      </c>
+      <c r="M8" s="11">
+        <v>8.8062883546173643E-2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>3.2478808234514586E-2</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6064,8 +6666,27 @@
         <f t="shared" si="0"/>
         <v>7092</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10">
+        <v>-1389</v>
+      </c>
+      <c r="K9" s="10">
+        <v>88988</v>
+      </c>
+      <c r="L9" s="10">
+        <v>90377</v>
+      </c>
+      <c r="M9" s="11">
+        <v>8.6709449096638538E-2</v>
+      </c>
+      <c r="N9" s="10">
+        <v>-1.5368954490633678E-2</v>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6085,8 +6706,27 @@
         <f t="shared" si="0"/>
         <v>2131</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-2774</v>
+      </c>
+      <c r="K10" s="10">
+        <v>84982</v>
+      </c>
+      <c r="L10" s="10">
+        <v>87756</v>
+      </c>
+      <c r="M10" s="11">
+        <v>8.2806023319217603E-2</v>
+      </c>
+      <c r="N10" s="10">
+        <v>-3.1610374219426592E-2</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -6106,8 +6746,27 @@
         <f t="shared" si="0"/>
         <v>-2983</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="10">
+        <v>-423</v>
+      </c>
+      <c r="K11" s="10">
+        <v>84559</v>
+      </c>
+      <c r="L11" s="10">
+        <v>84982</v>
+      </c>
+      <c r="M11" s="11">
+        <v>8.2393854296788985E-2</v>
+      </c>
+      <c r="N11" s="10">
+        <v>-4.9775246522793066E-3</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6127,8 +6786,27 @@
         <f t="shared" si="0"/>
         <v>-4323</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="10">
+        <v>-548</v>
+      </c>
+      <c r="K12" s="10">
+        <v>84011</v>
+      </c>
+      <c r="L12" s="10">
+        <v>84559</v>
+      </c>
+      <c r="M12" s="11">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="N12" s="10">
+        <v>-6.4806821272720824E-3</v>
+      </c>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -6148,8 +6826,27 @@
         <f t="shared" si="0"/>
         <v>-1917</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2366</v>
+      </c>
+      <c r="K13" s="10">
+        <v>86377</v>
+      </c>
+      <c r="L13" s="10">
+        <v>84011</v>
+      </c>
+      <c r="M13" s="11">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2.8162978657556747E-2</v>
+      </c>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -6169,8 +6866,27 @@
         <f t="shared" si="0"/>
         <v>2929</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="10">
+        <v>-2843</v>
+      </c>
+      <c r="K14" s="10">
+        <v>83534</v>
+      </c>
+      <c r="L14" s="10">
+        <v>86377</v>
+      </c>
+      <c r="M14" s="11">
+        <v>8.1395099573409929E-2</v>
+      </c>
+      <c r="N14" s="10">
+        <v>-3.2913854382532387E-2</v>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -6190,8 +6906,27 @@
         <f t="shared" si="0"/>
         <v>7092</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1389</v>
+      </c>
+      <c r="K15" s="10">
+        <v>84923</v>
+      </c>
+      <c r="L15" s="10">
+        <v>83534</v>
+      </c>
+      <c r="M15" s="11">
+        <v>8.2748534022945047E-2</v>
+      </c>
+      <c r="N15" s="10">
+        <v>1.6627959872626715E-2</v>
+      </c>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -6211,8 +6946,27 @@
         <f t="shared" si="0"/>
         <v>2131</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="10">
+        <v>-4318</v>
+      </c>
+      <c r="K16" s="10">
+        <v>80605</v>
+      </c>
+      <c r="L16" s="10">
+        <v>84923</v>
+      </c>
+      <c r="M16" s="11">
+        <v>7.8541097051676056E-2</v>
+      </c>
+      <c r="N16" s="10">
+        <v>-5.084606054896789E-2</v>
+      </c>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -6232,8 +6986,27 @@
         <f t="shared" si="0"/>
         <v>-2983</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3406</v>
+      </c>
+      <c r="K17" s="10">
+        <v>84011</v>
+      </c>
+      <c r="L17" s="10">
+        <v>80605</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="N17" s="10">
+        <v>4.2255443210718939E-2</v>
+      </c>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -6253,8 +7026,27 @@
         <f t="shared" si="0"/>
         <v>-4323</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2366</v>
+      </c>
+      <c r="K18" s="10">
+        <v>86377</v>
+      </c>
+      <c r="L18" s="10">
+        <v>84011</v>
+      </c>
+      <c r="M18" s="11">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="N18" s="10">
+        <v>2.8162978657556747E-2</v>
+      </c>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -6274,8 +7066,27 @@
         <f t="shared" si="0"/>
         <v>-5772</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="10">
+        <v>-4222</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1026278</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1030500</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
+        <v>-4.0970402717127605E-3</v>
+      </c>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -6295,8 +7106,14 @@
         <f t="shared" si="0"/>
         <v>2131</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -6316,8 +7133,14 @@
         <f t="shared" si="0"/>
         <v>1454</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -6337,8 +7160,14 @@
         <f t="shared" si="0"/>
         <v>-2983</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -6358,8 +7187,14 @@
         <f t="shared" si="0"/>
         <v>-4323</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -6379,8 +7214,14 @@
         <f t="shared" si="0"/>
         <v>-1917</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -6400,8 +7241,14 @@
         <f t="shared" si="0"/>
         <v>7092</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -6421,8 +7268,14 @@
         <f t="shared" si="0"/>
         <v>2131</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -6442,8 +7295,14 @@
         <f t="shared" si="0"/>
         <v>-2983</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -6463,8 +7322,14 @@
         <f t="shared" si="0"/>
         <v>-4323</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -6484,8 +7349,14 @@
         <f t="shared" si="0"/>
         <v>-1917</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -6506,7 +7377,7 @@
         <v>7092</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -6527,7 +7398,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -10246,11 +11117,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10259,11 +11139,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -10307,204 +11187,224 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>-2843</v>
+        <v>-4297</v>
       </c>
       <c r="C6" s="4">
-        <v>266899</v>
+        <v>87534</v>
       </c>
       <c r="D6" s="4">
-        <v>269742</v>
+        <v>91831</v>
       </c>
       <c r="E6" s="5">
-        <v>0.26006501162453061</v>
+        <v>8.5292678981718398E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>-2774</v>
+        <v>2843</v>
       </c>
       <c r="C7" s="4">
-        <v>84982</v>
+        <v>90377</v>
       </c>
       <c r="D7" s="4">
-        <v>87756</v>
+        <v>87534</v>
       </c>
       <c r="E7" s="5">
-        <v>8.2806023319217603E-2</v>
+        <v>8.8062883546173643E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
-        <v>-423</v>
+        <v>-1389</v>
       </c>
       <c r="C8" s="4">
-        <v>84559</v>
+        <v>88988</v>
       </c>
       <c r="D8" s="4">
-        <v>84982</v>
+        <v>90377</v>
       </c>
       <c r="E8" s="5">
-        <v>8.2393854296788985E-2</v>
+        <v>8.6709449096638538E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>-548</v>
+        <v>-2774</v>
       </c>
       <c r="C9" s="4">
-        <v>84011</v>
+        <v>84982</v>
       </c>
       <c r="D9" s="4">
-        <v>84559</v>
+        <v>87756</v>
       </c>
       <c r="E9" s="5">
-        <v>8.1859885917850719E-2</v>
+        <v>8.2806023319217603E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>2366</v>
+        <v>-423</v>
       </c>
       <c r="C10" s="4">
-        <v>86377</v>
+        <v>84559</v>
       </c>
       <c r="D10" s="4">
-        <v>84011</v>
+        <v>84982</v>
       </c>
       <c r="E10" s="5">
-        <v>8.4165304137865174E-2</v>
+        <v>8.2393854296788985E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
-        <v>-2843</v>
+        <v>-548</v>
       </c>
       <c r="C11" s="4">
-        <v>83534</v>
+        <v>84011</v>
       </c>
       <c r="D11" s="4">
-        <v>86377</v>
+        <v>84559</v>
       </c>
       <c r="E11" s="5">
-        <v>8.1395099573409929E-2</v>
+        <v>8.1859885917850719E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
-        <v>1389</v>
+        <v>2366</v>
       </c>
       <c r="C12" s="4">
-        <v>84923</v>
+        <v>86377</v>
       </c>
       <c r="D12" s="4">
-        <v>83534</v>
+        <v>84011</v>
       </c>
       <c r="E12" s="5">
-        <v>8.2748534022945047E-2</v>
+        <v>8.4165304137865174E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4">
-        <v>-4318</v>
+        <v>-2843</v>
       </c>
       <c r="C13" s="4">
-        <v>80605</v>
+        <v>83534</v>
       </c>
       <c r="D13" s="4">
-        <v>84923</v>
+        <v>86377</v>
       </c>
       <c r="E13" s="5">
-        <v>7.8541097051676056E-2</v>
+        <v>8.1395099573409929E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
-        <v>3406</v>
+        <v>1389</v>
       </c>
       <c r="C14" s="4">
-        <v>84011</v>
+        <v>84923</v>
       </c>
       <c r="D14" s="4">
-        <v>80605</v>
+        <v>83534</v>
       </c>
       <c r="E14" s="5">
-        <v>8.1859885917850719E-2</v>
+        <v>8.2748534022945047E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>2366</v>
+        <v>-4318</v>
       </c>
       <c r="C15" s="4">
-        <v>86377</v>
+        <v>80605</v>
       </c>
       <c r="D15" s="4">
-        <v>84011</v>
+        <v>84923</v>
       </c>
       <c r="E15" s="5">
-        <v>8.4165304137865174E-2</v>
+        <v>7.8541097051676056E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3406</v>
+      </c>
+      <c r="C16" s="4">
+        <v>84011</v>
+      </c>
+      <c r="D16" s="4">
+        <v>80605</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8.1859885917850719E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2366</v>
+      </c>
+      <c r="C17" s="4">
+        <v>86377</v>
+      </c>
+      <c r="D17" s="4">
+        <v>84011</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8.4165304137865174E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B18" s="4">
         <v>-4222</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C18" s="4">
         <v>1026278</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D18" s="4">
         <v>1030500</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19"/>
@@ -10582,7 +11482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10865,7 +11765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11148,7 +12048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11431,7 +12331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11716,7 +12616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11863,21 +12763,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11893,7 +12795,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11922,300 +12824,665 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>-5772</v>
-      </c>
-      <c r="C6" s="4">
-        <v>27399</v>
-      </c>
-      <c r="D6" s="4">
-        <v>33171</v>
+      <c r="B6" s="12">
+        <v>-4297</v>
+      </c>
+      <c r="C6" s="12">
+        <v>87534</v>
+      </c>
+      <c r="D6" s="12">
+        <v>91831</v>
       </c>
       <c r="E6" s="5">
-        <v>7.4277596896492826E-2</v>
+        <v>8.5292678981718398E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
-        <v>-3846</v>
-      </c>
-      <c r="C7" s="4">
-        <v>29108</v>
-      </c>
-      <c r="D7" s="4">
-        <v>32954</v>
+      <c r="B7" s="12">
+        <v>2843</v>
+      </c>
+      <c r="C7" s="12">
+        <v>90377</v>
+      </c>
+      <c r="D7" s="12">
+        <v>87534</v>
       </c>
       <c r="E7" s="5">
-        <v>7.8910627777039791E-2</v>
+        <v>8.8062883546173643E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
-        <v>11529</v>
-      </c>
-      <c r="C8" s="4">
-        <v>32313</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20784</v>
+      <c r="B8" s="12">
+        <v>-1389</v>
+      </c>
+      <c r="C8" s="12">
+        <v>88988</v>
+      </c>
+      <c r="D8" s="12">
+        <v>90377</v>
       </c>
       <c r="E8" s="5">
-        <v>8.7599255028153328E-2</v>
+        <v>8.6709449096638538E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
-        <v>-54</v>
-      </c>
-      <c r="C9" s="4">
-        <v>37600</v>
-      </c>
-      <c r="D9" s="4">
-        <v>37654</v>
+      <c r="B9" s="12">
+        <v>-2774</v>
+      </c>
+      <c r="C9" s="12">
+        <v>84982</v>
+      </c>
+      <c r="D9" s="12">
+        <v>87756</v>
       </c>
       <c r="E9" s="5">
-        <v>0.1019321012923147</v>
+        <v>8.2806023319217603E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
-        <v>3318</v>
-      </c>
-      <c r="C10" s="4">
-        <v>35363</v>
-      </c>
-      <c r="D10" s="4">
-        <v>32045</v>
+      <c r="B10" s="12">
+        <v>-423</v>
+      </c>
+      <c r="C10" s="12">
+        <v>84559</v>
+      </c>
+      <c r="D10" s="12">
+        <v>84982</v>
       </c>
       <c r="E10" s="5">
-        <v>9.5867683457450129E-2</v>
+        <v>8.2393854296788985E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
-        <v>-3740</v>
-      </c>
-      <c r="C11" s="4">
-        <v>32855</v>
-      </c>
-      <c r="D11" s="4">
-        <v>36595</v>
+      <c r="B11" s="12">
+        <v>-548</v>
+      </c>
+      <c r="C11" s="12">
+        <v>84011</v>
+      </c>
+      <c r="D11" s="12">
+        <v>84559</v>
       </c>
       <c r="E11" s="5">
-        <v>8.9068595424441468E-2</v>
+        <v>8.1859885917850719E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
-        <v>-275</v>
-      </c>
-      <c r="C12" s="4">
-        <v>27239</v>
-      </c>
-      <c r="D12" s="4">
-        <v>27514</v>
+      <c r="B12" s="12">
+        <v>2366</v>
+      </c>
+      <c r="C12" s="12">
+        <v>86377</v>
+      </c>
+      <c r="D12" s="12">
+        <v>84011</v>
       </c>
       <c r="E12" s="5">
-        <v>7.3843843273972337E-2</v>
+        <v>8.4165304137865174E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
-        <v>2769</v>
-      </c>
-      <c r="C13" s="4">
-        <v>33432</v>
-      </c>
-      <c r="D13" s="4">
-        <v>30663</v>
+      <c r="B13" s="12">
+        <v>-2843</v>
+      </c>
+      <c r="C13" s="12">
+        <v>83534</v>
+      </c>
+      <c r="D13" s="12">
+        <v>86377</v>
       </c>
       <c r="E13" s="5">
-        <v>9.0632819425655986E-2</v>
+        <v>8.1395099573409929E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4">
-        <v>-2983</v>
-      </c>
-      <c r="C14" s="4">
-        <v>29217</v>
-      </c>
-      <c r="D14" s="4">
-        <v>32200</v>
+      <c r="B14" s="12">
+        <v>1389</v>
+      </c>
+      <c r="C14" s="12">
+        <v>84923</v>
+      </c>
+      <c r="D14" s="12">
+        <v>83534</v>
       </c>
       <c r="E14" s="5">
-        <v>7.920612243238187E-2</v>
+        <v>8.2748534022945047E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
-        <v>-1917</v>
-      </c>
-      <c r="C15" s="4">
-        <v>27300</v>
-      </c>
-      <c r="D15" s="4">
-        <v>29217</v>
+      <c r="B15" s="12">
+        <v>-4318</v>
+      </c>
+      <c r="C15" s="12">
+        <v>80605</v>
+      </c>
+      <c r="D15" s="12">
+        <v>84923</v>
       </c>
       <c r="E15" s="5">
-        <v>7.4009211842558278E-2</v>
+        <v>7.8541097051676056E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23876</v>
-      </c>
-      <c r="D16" s="4">
-        <v>23876</v>
+      <c r="B16" s="12">
+        <v>3406</v>
+      </c>
+      <c r="C16" s="12">
+        <v>84011</v>
+      </c>
+      <c r="D16" s="12">
+        <v>80605</v>
       </c>
       <c r="E16" s="5">
-        <v>6.4726884320619835E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.1859885917850719E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4">
-        <v>912</v>
-      </c>
-      <c r="C17" s="4">
-        <v>33171</v>
-      </c>
-      <c r="D17" s="4">
-        <v>32259</v>
+      <c r="B17" s="12">
+        <v>2366</v>
+      </c>
+      <c r="C17" s="12">
+        <v>86377</v>
+      </c>
+      <c r="D17" s="12">
+        <v>84011</v>
       </c>
       <c r="E17" s="5">
-        <v>8.9925258828919441E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.4165304137865174E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4">
-        <v>-59</v>
-      </c>
-      <c r="C18" s="4">
-        <v>368873</v>
-      </c>
-      <c r="D18" s="4">
-        <v>368932</v>
+      <c r="B18" s="12">
+        <v>-4222</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1026278</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1030500</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26"/>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13">
+        <v>87534</v>
+      </c>
+      <c r="C28" s="13">
+        <v>91831</v>
+      </c>
+      <c r="D28" s="13">
+        <v>-4297</v>
+      </c>
+      <c r="E28" s="11">
+        <v>8.5292678981718398E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>-4297</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="13">
+        <v>90377</v>
+      </c>
+      <c r="C29" s="13">
+        <v>87534</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2843</v>
+      </c>
+      <c r="E29" s="11">
+        <v>8.8062883546173643E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2843</v>
+      </c>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="13">
+        <v>88988</v>
+      </c>
+      <c r="C30" s="13">
+        <v>90377</v>
+      </c>
+      <c r="D30" s="13">
+        <v>-1389</v>
+      </c>
+      <c r="E30" s="11">
+        <v>8.6709449096638538E-2</v>
+      </c>
+      <c r="F30" s="10">
+        <v>-1389</v>
+      </c>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="13">
+        <v>84982</v>
+      </c>
+      <c r="C31" s="13">
+        <v>87756</v>
+      </c>
+      <c r="D31" s="13">
+        <v>-2774</v>
+      </c>
+      <c r="E31" s="11">
+        <v>8.2806023319217603E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <v>-2774</v>
+      </c>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="13">
+        <v>84559</v>
+      </c>
+      <c r="C32" s="13">
+        <v>84982</v>
+      </c>
+      <c r="D32" s="13">
+        <v>-423</v>
+      </c>
+      <c r="E32" s="11">
+        <v>8.2393854296788985E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>-423</v>
+      </c>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="13">
+        <v>84011</v>
+      </c>
+      <c r="C33" s="13">
+        <v>84559</v>
+      </c>
+      <c r="D33" s="13">
+        <v>-548</v>
+      </c>
+      <c r="E33" s="11">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="F33" s="10">
+        <v>-548</v>
+      </c>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="13">
+        <v>86377</v>
+      </c>
+      <c r="C34" s="13">
+        <v>84011</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2366</v>
+      </c>
+      <c r="E34" s="11">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>2366</v>
+      </c>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13">
+        <v>83534</v>
+      </c>
+      <c r="C35" s="13">
+        <v>86377</v>
+      </c>
+      <c r="D35" s="13">
+        <v>-2843</v>
+      </c>
+      <c r="E35" s="11">
+        <v>8.1395099573409929E-2</v>
+      </c>
+      <c r="F35" s="10">
+        <v>-2843</v>
+      </c>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="13">
+        <v>84923</v>
+      </c>
+      <c r="C36" s="13">
+        <v>83534</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1389</v>
+      </c>
+      <c r="E36" s="11">
+        <v>8.2748534022945047E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1389</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="13">
+        <v>80605</v>
+      </c>
+      <c r="C37" s="13">
+        <v>84923</v>
+      </c>
+      <c r="D37" s="13">
+        <v>-4318</v>
+      </c>
+      <c r="E37" s="11">
+        <v>7.8541097051676056E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <v>-4318</v>
+      </c>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="13">
+        <v>84011</v>
+      </c>
+      <c r="C38" s="13">
+        <v>80605</v>
+      </c>
+      <c r="D38" s="13">
+        <v>3406</v>
+      </c>
+      <c r="E38" s="11">
+        <v>8.1859885917850719E-2</v>
+      </c>
+      <c r="F38" s="10">
+        <v>3406</v>
+      </c>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="13">
+        <v>86377</v>
+      </c>
+      <c r="C39" s="13">
+        <v>84011</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2366</v>
+      </c>
+      <c r="E39" s="11">
+        <v>8.4165304137865174E-2</v>
+      </c>
+      <c r="F39" s="10">
+        <v>2366</v>
+      </c>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1026278</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1030500</v>
+      </c>
+      <c r="D40" s="13">
+        <v>-4222</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>-4222</v>
+      </c>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -12223,7 +13490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
@@ -12232,7 +13499,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
